--- a/Java_Selenium_Prerequisite/Syllabus.xlsx
+++ b/Java_Selenium_Prerequisite/Syllabus.xlsx
@@ -572,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,80 +900,78 @@
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -981,7 +979,7 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -989,7 +987,7 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,64 +995,84 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="A48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>60</v>
+      <c r="A50" s="1"/>
+      <c r="B50" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="A52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Java_Selenium_Prerequisite/Syllabus.xlsx
+++ b/Java_Selenium_Prerequisite/Syllabus.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wonder\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Syllabus" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -191,9 +187,6 @@
     <t xml:space="preserve">Data Driven </t>
   </si>
   <si>
-    <t>Excel, Xml</t>
-  </si>
-  <si>
     <t>junit_datadriven_excel</t>
   </si>
   <si>
@@ -219,6 +212,9 @@
   </si>
   <si>
     <t>CI</t>
+  </si>
+  <si>
+    <t>Excel, 0</t>
   </si>
 </sst>
 </file>
@@ -575,7 +571,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,10 +955,10 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>39</v>
@@ -989,7 +985,7 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,7 +993,7 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,10 +1004,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1019,7 +1015,7 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1035,7 +1031,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1043,7 +1039,7 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1051,7 +1047,7 @@
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
